--- a/output/xlsx/RF011 - Gerenciar Competencias (Portfolio)--GT-.xlsx
+++ b/output/xlsx/RF011 - Gerenciar Competencias (Portfolio)--GT-.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="66">
   <si>
     <t xml:space="preserve">System: </t>
   </si>
@@ -32,7 +32,7 @@
     <t xml:space="preserve">Version: </t>
   </si>
   <si>
-    <t>0.1</t>
+    <t>1.0</t>
   </si>
   <si>
     <t>Suite Type:</t>
@@ -71,7 +71,7 @@
     <t xml:space="preserve">Precondition: </t>
   </si>
   <si>
-    <t>Lider de Pessoas esta autenticado no sistema e  tem permissao para gerenciar competencias (portfolio).</t>
+    <t>Lider de Pessoas esta autenticado no sistema e  tem permissao para gerenciar Competencias (Portfolio).</t>
   </si>
   <si>
     <t>#</t>
@@ -92,22 +92,22 @@
     <t>Actual Result</t>
   </si>
   <si>
-    <t>Lider de Pessoas acessa a funcionalidade de gestao de competencias (portfolio) a partir do menu inicial</t>
-  </si>
-  <si>
-    <t>SYSTEM exibe a listagem dos competencias (portfolio) cadastrados com opcoes de 'Novo', 'Editar', 'Excluir' e 'Ajuda'</t>
-  </si>
-  <si>
-    <t>Lider de Pessoas seleciona um competecias (portfolio) da listagem</t>
-  </si>
-  <si>
-    <t>SYSTEM destaca o competecias (portfolio) selecionado na listagem</t>
-  </si>
-  <si>
-    <t>Lider de Pessoas clica na opcao 'Editar' para modificar o competecias (portfolio) selecionado</t>
-  </si>
-  <si>
-    <t>SYSTEM apresenta o formulario para cadastro e alteracao de competecias (portfolio)</t>
+    <t>Lider de Pessoas acessa a funcionalidade de gestao de Competencias (Portfolio) a partir do menu inicial</t>
+  </si>
+  <si>
+    <t>SYSTEM exibe a listagem dos Competencias (Portfolio) cadastrados com opcoes de 'Novo', 'Editar', 'Excluir' e 'Ajuda'</t>
+  </si>
+  <si>
+    <t>Lider de Pessoas seleciona um Competencias (Portfolio) da listagem</t>
+  </si>
+  <si>
+    <t>SYSTEM destaca o Competencias (Portfolio) selecionado na listagem</t>
+  </si>
+  <si>
+    <t>Lider de Pessoas clica na opcao 'Editar' para modificar o Competencias (Portfolio) selecionado</t>
+  </si>
+  <si>
+    <t>SYSTEM apresenta o formulario para cadastro e alteracao de Competencias (Portfolio)</t>
   </si>
   <si>
     <t>Lider de Pessoas seleciona no campo 'Tipo de Competencia' a opcao tecnica</t>
@@ -149,25 +149,34 @@
     <t xml:space="preserve">Postcondition: </t>
   </si>
   <si>
-    <t>A gestao de competencias (portfolio) e realizada com sucesso.</t>
+    <t>A gestao de Competencias (Portfolio) e realizada com sucesso.</t>
   </si>
   <si>
     <t>TC2</t>
   </si>
   <si>
-    <t>Lider de Pessoas clica na opcao 'Excluir' para excluir o competecias (portfolio) selecionado</t>
+    <t>Lider de Pessoas clica na opcao 'Excluir' para excluir o Competencias (Portfolio) selecionado</t>
   </si>
   <si>
     <t>SYSTEM solicita confirmacao de exclusao mostrando o nome da Competencia (portfolio)</t>
   </si>
   <si>
+    <t>Lider de Pessoas confirma a exclusao da Competencia (portfolio)</t>
+  </si>
+  <si>
+    <t>SYSTEM exibe uma mensagem de erro ao tentar excluir a Competencia (portfolio)</t>
+  </si>
+  <si>
+    <t>TC3</t>
+  </si>
+  <si>
     <t>Lider de Pessoas nao confirma a exclusao da Competencia (portfolio)</t>
   </si>
   <si>
-    <t>SYSTEM exibe a listagem dos competencias (portfolio) com o competecias (portfolio) excluido</t>
-  </si>
-  <si>
-    <t>TC3</t>
+    <t>SYSTEM exibe a listagem dos Competencias (Portfolio) com o Competencias (Portfolio) excluido</t>
+  </si>
+  <si>
+    <t>TC4</t>
   </si>
   <si>
     <t>Lider de Pessoas clica na opcao 'Novo' para criar um nova Competencia (portfolio)</t>
@@ -179,37 +188,28 @@
     <t>Lider de Pessoas indica Nao no campo 'Niveis estao modificados para esta competencia'</t>
   </si>
   <si>
+    <t>SYSTEM exibe uma mensagem de erro ao tentar salvar a nova Competencia (portfolio), informando o campo ou a validacao que falhou</t>
+  </si>
+  <si>
+    <t>TC5</t>
+  </si>
+  <si>
+    <t>Usuario Nao-Autenticado acessa a funcionalidade de gestao de Competencias (Portfolio) a partir do menu inicial</t>
+  </si>
+  <si>
+    <t>SYSTEM exibe a listagem dos Competencias (Portfolio) cadastrados apenas para visualizacao com a opcao 'Ajuda'</t>
+  </si>
+  <si>
+    <t>TC6</t>
+  </si>
+  <si>
     <t>SYSTEM exibe uma mensagem de erro ao tentar editar a Competencia (portfolio), informando o campo ou a validacao que falhou</t>
   </si>
   <si>
-    <t>TC4</t>
-  </si>
-  <si>
-    <t>Lider de Pessoas confirma a exclusao da Competencia (portfolio)</t>
-  </si>
-  <si>
-    <t>SYSTEM exibe a listagem dos competencias (portfolio) sem o competecias (portfolio) excluido</t>
-  </si>
-  <si>
-    <t>TC5</t>
-  </si>
-  <si>
-    <t>Usuario Nao-Autenticado acessa a funcionalidade de gestao de competencias (portfolio) a partir do menu inicial</t>
-  </si>
-  <si>
-    <t>SYSTEM exibe a listagem dos competencias (portfolio) cadastrados apenas para visualizacao com a opcao 'Ajuda'</t>
-  </si>
-  <si>
-    <t>TC6</t>
-  </si>
-  <si>
-    <t>SYSTEM exibe uma mensagem de erro ao tentar salvar a nova Competencia (portfolio), informando o campo ou a validacao que falhou</t>
-  </si>
-  <si>
     <t>TC7</t>
   </si>
   <si>
-    <t>SYSTEM exibe uma mensagem de erro ao tentar excluir a Competencia (portfolio)</t>
+    <t>SYSTEM exibe a listagem dos Competencias (Portfolio) sem o Competencias (Portfolio) excluido</t>
   </si>
 </sst>
 </file>
@@ -405,7 +405,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F86"/>
+  <dimension ref="A1:F83"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" showGridLines="false"/>
   </sheetViews>
@@ -1030,13 +1030,13 @@
         <v>2.0</v>
       </c>
       <c r="B37" t="s" s="7">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="C37" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D37" t="s" s="7">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E37" t="s" s="6">
         <v>2</v>
@@ -1050,13 +1050,13 @@
         <v>3.0</v>
       </c>
       <c r="B38" t="s" s="7">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C38" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D38" t="s" s="7">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="E38" t="s" s="6">
         <v>2</v>
@@ -1070,13 +1070,13 @@
         <v>4.0</v>
       </c>
       <c r="B39" t="s" s="7">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="C39" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D39" t="s" s="7">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="E39" t="s" s="6">
         <v>2</v>
@@ -1085,160 +1085,160 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="n" s="10">
-        <v>5.0</v>
-      </c>
-      <c r="B40" t="s" s="7">
-        <v>36</v>
-      </c>
-      <c r="C40" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D40" t="s" s="7">
-        <v>37</v>
-      </c>
-      <c r="E40" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F40" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n" s="10">
-        <v>6.0</v>
-      </c>
-      <c r="B41" t="s" s="7">
+    <row r="40"/>
+    <row r="41"/>
+    <row r="42">
+      <c r="A42" t="s" s="4">
+        <v>12</v>
+      </c>
+      <c r="B42" t="s" s="4">
         <v>54</v>
       </c>
-      <c r="C41" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D41" t="s" s="7">
-        <v>39</v>
-      </c>
-      <c r="E41" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F41" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n" s="10">
-        <v>7.0</v>
-      </c>
-      <c r="B42" t="s" s="7">
-        <v>42</v>
-      </c>
-      <c r="C42" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D42" t="s" s="7">
+      <c r="C42" t="s" s="4">
+        <v>14</v>
+      </c>
+      <c r="D42" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="E42" t="s" s="4">
+        <v>15</v>
+      </c>
+      <c r="F42" t="s" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="9">
+        <v>16</v>
+      </c>
+      <c r="B43" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="C43" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="D43" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="E43" t="s" s="9">
+        <v>17</v>
+      </c>
+      <c r="F43" t="s" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="8">
+        <v>18</v>
+      </c>
+      <c r="B44" t="s" s="8">
+        <v>19</v>
+      </c>
+      <c r="C44" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D44" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E44" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F44" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="5">
+        <v>20</v>
+      </c>
+      <c r="B45" t="s" s="5">
+        <v>21</v>
+      </c>
+      <c r="C45" t="s" s="5">
+        <v>22</v>
+      </c>
+      <c r="D45" t="s" s="5">
+        <v>23</v>
+      </c>
+      <c r="E45" t="s" s="5">
+        <v>24</v>
+      </c>
+      <c r="F45" t="s" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="B46" t="s" s="7">
+        <v>26</v>
+      </c>
+      <c r="C46" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D46" t="s" s="7">
+        <v>27</v>
+      </c>
+      <c r="E46" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F46" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="B47" t="s" s="7">
         <v>55</v>
       </c>
-      <c r="E42" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F42" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43"/>
-    <row r="44"/>
-    <row r="45">
-      <c r="A45" t="s" s="4">
-        <v>12</v>
-      </c>
-      <c r="B45" t="s" s="4">
+      <c r="C47" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D47" t="s" s="7">
+        <v>31</v>
+      </c>
+      <c r="E47" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F47" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="B48" t="s" s="7">
         <v>56</v>
       </c>
-      <c r="C45" t="s" s="4">
-        <v>14</v>
-      </c>
-      <c r="D45" t="s" s="4">
-        <v>2</v>
-      </c>
-      <c r="E45" t="s" s="4">
-        <v>15</v>
-      </c>
-      <c r="F45" t="s" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="s" s="9">
-        <v>16</v>
-      </c>
-      <c r="B46" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="C46" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="D46" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="E46" t="s" s="9">
-        <v>17</v>
-      </c>
-      <c r="F46" t="s" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="s" s="8">
-        <v>18</v>
-      </c>
-      <c r="B47" t="s" s="8">
-        <v>19</v>
-      </c>
-      <c r="C47" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D47" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E47" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F47" t="s" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="s" s="5">
-        <v>20</v>
-      </c>
-      <c r="B48" t="s" s="5">
-        <v>21</v>
-      </c>
-      <c r="C48" t="s" s="5">
-        <v>22</v>
-      </c>
-      <c r="D48" t="s" s="5">
-        <v>23</v>
-      </c>
-      <c r="E48" t="s" s="5">
-        <v>24</v>
-      </c>
-      <c r="F48" t="s" s="5">
-        <v>25</v>
+      <c r="C48" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D48" t="s" s="7">
+        <v>33</v>
+      </c>
+      <c r="E48" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F48" t="s" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n" s="10">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="B49" t="s" s="7">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C49" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D49" t="s" s="7">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E49" t="s" s="6">
         <v>2</v>
@@ -1249,16 +1249,16 @@
     </row>
     <row r="50">
       <c r="A50" t="n" s="10">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="B50" t="s" s="7">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C50" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D50" t="s" s="7">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="E50" t="s" s="6">
         <v>2</v>
@@ -1269,16 +1269,16 @@
     </row>
     <row r="51">
       <c r="A51" t="n" s="10">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="B51" t="s" s="7">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="C51" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D51" t="s" s="7">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="E51" t="s" s="6">
         <v>2</v>
@@ -1289,10 +1289,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n" s="10">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="B52" t="s" s="7">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="C52" t="s" s="6">
         <v>2</v>
@@ -1556,7 +1556,7 @@
         <v>4.0</v>
       </c>
       <c r="B69" t="s" s="7">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="C69" t="s" s="6">
         <v>2</v>
@@ -1616,7 +1616,7 @@
         <v>7.0</v>
       </c>
       <c r="B72" t="s" s="7">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C72" t="s" s="6">
         <v>2</v>
@@ -1758,13 +1758,13 @@
         <v>2.0</v>
       </c>
       <c r="B81" t="s" s="7">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="C81" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D81" t="s" s="7">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E81" t="s" s="6">
         <v>2</v>
@@ -1778,13 +1778,13 @@
         <v>3.0</v>
       </c>
       <c r="B82" t="s" s="7">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="C82" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D82" t="s" s="7">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="E82" t="s" s="6">
         <v>2</v>
@@ -1798,78 +1798,18 @@
         <v>4.0</v>
       </c>
       <c r="B83" t="s" s="7">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="C83" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D83" t="s" s="7">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="E83" t="s" s="6">
         <v>2</v>
       </c>
       <c r="F83" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="n" s="10">
-        <v>5.0</v>
-      </c>
-      <c r="B84" t="s" s="7">
-        <v>36</v>
-      </c>
-      <c r="C84" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D84" t="s" s="7">
-        <v>37</v>
-      </c>
-      <c r="E84" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F84" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="n" s="10">
-        <v>6.0</v>
-      </c>
-      <c r="B85" t="s" s="7">
-        <v>54</v>
-      </c>
-      <c r="C85" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D85" t="s" s="7">
-        <v>39</v>
-      </c>
-      <c r="E85" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F85" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="n" s="10">
-        <v>7.0</v>
-      </c>
-      <c r="B86" t="s" s="7">
-        <v>42</v>
-      </c>
-      <c r="C86" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D86" t="s" s="7">
-        <v>65</v>
-      </c>
-      <c r="E86" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F86" t="s" s="6">
         <v>2</v>
       </c>
     </row>
@@ -1883,8 +1823,8 @@
     <mergeCell ref="B24:F24"/>
     <mergeCell ref="B33:D33"/>
     <mergeCell ref="B34:F34"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:F47"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B44:F44"/>
     <mergeCell ref="B56:D56"/>
     <mergeCell ref="B57:F57"/>
     <mergeCell ref="B63:D63"/>

--- a/output/xlsx/RF011 - Gerenciar Competencias (Portfolio)--GT-.xlsx
+++ b/output/xlsx/RF011 - Gerenciar Competencias (Portfolio)--GT-.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="66">
   <si>
     <t xml:space="preserve">System: </t>
   </si>
@@ -95,16 +95,16 @@
     <t>Lider de Pessoas acessa a funcionalidade de gestao de Competencias (Portfolio) a partir do menu inicial</t>
   </si>
   <si>
-    <t>SYSTEM exibe a listagem dos Competencias (Portfolio) cadastrados com opcoes de 'Novo', 'Editar', 'Excluir' e 'Ajuda'</t>
+    <t>SYSTEM exibe a listagem das Competencias (Portfolio) cadastradas com opcoes de 'Novo', 'Editar', 'Excluir' e 'Ajuda'</t>
   </si>
   <si>
     <t>Lider de Pessoas seleciona um Competencias (Portfolio) da listagem</t>
   </si>
   <si>
-    <t>SYSTEM destaca o Competencias (Portfolio) selecionado na listagem</t>
-  </si>
-  <si>
-    <t>Lider de Pessoas clica na opcao 'Editar' para modificar o Competencias (Portfolio) selecionado</t>
+    <t>SYSTEM destaca a Competencia (Portfolio) selecionada na listagem</t>
+  </si>
+  <si>
+    <t>Lider de Pessoas clica na opcao 'Editar' para modificar a Competencia (Portfolio) selecionada</t>
   </si>
   <si>
     <t>SYSTEM apresenta o formulario para cadastro e alteracao de Competencias (Portfolio)</t>
@@ -155,7 +155,7 @@
     <t>TC2</t>
   </si>
   <si>
-    <t>Lider de Pessoas clica na opcao 'Excluir' para excluir o Competencias (Portfolio) selecionado</t>
+    <t>Lider de Pessoas clica na opcao 'Excluir' para excluir a Competencia (Portfolio) selecionada</t>
   </si>
   <si>
     <t>SYSTEM solicita confirmacao de exclusao mostrando o nome da Competencia (portfolio)</t>
@@ -173,7 +173,7 @@
     <t>Lider de Pessoas nao confirma a exclusao da Competencia (portfolio)</t>
   </si>
   <si>
-    <t>SYSTEM exibe a listagem dos Competencias (Portfolio) com o Competencias (Portfolio) excluido</t>
+    <t>SYSTEM exibe a listagem das Competencias (Portfolio) com a Competencia (Portfolio) excluida</t>
   </si>
   <si>
     <t>TC4</t>
@@ -197,7 +197,7 @@
     <t>Usuario Nao-Autenticado acessa a funcionalidade de gestao de Competencias (Portfolio) a partir do menu inicial</t>
   </si>
   <si>
-    <t>SYSTEM exibe a listagem dos Competencias (Portfolio) cadastrados apenas para visualizacao com a opcao 'Ajuda'</t>
+    <t>SYSTEM exibe a listagem das Competencias (Portfolio) cadastradas apenas para visualizacao com a opcao 'Ajuda'</t>
   </si>
   <si>
     <t>TC6</t>
@@ -209,7 +209,7 @@
     <t>TC7</t>
   </si>
   <si>
-    <t>SYSTEM exibe a listagem dos Competencias (Portfolio) sem o Competencias (Portfolio) excluido</t>
+    <t>SYSTEM exibe a listagem das Competencias (Portfolio) sem a Competencia (Portfolio) excluida</t>
   </si>
 </sst>
 </file>
@@ -405,7 +405,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F83"/>
+  <dimension ref="A1:F84"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" showGridLines="false"/>
   </sheetViews>
@@ -1616,7 +1616,7 @@
         <v>7.0</v>
       </c>
       <c r="B72" t="s" s="7">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="C72" t="s" s="6">
         <v>2</v>
@@ -1636,135 +1636,135 @@
         <v>8.0</v>
       </c>
       <c r="B73" t="s" s="7">
+        <v>40</v>
+      </c>
+      <c r="C73" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D73" t="s" s="7">
+        <v>41</v>
+      </c>
+      <c r="E73" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F73" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n" s="10">
+        <v>9.0</v>
+      </c>
+      <c r="B74" t="s" s="7">
         <v>42</v>
       </c>
-      <c r="C73" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D73" t="s" s="7">
+      <c r="C74" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D74" t="s" s="7">
         <v>63</v>
       </c>
-      <c r="E73" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F73" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="74"/>
+      <c r="E74" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F74" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
     <row r="75"/>
-    <row r="76">
-      <c r="A76" t="s" s="4">
+    <row r="76"/>
+    <row r="77">
+      <c r="A77" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="B76" t="s" s="4">
+      <c r="B77" t="s" s="4">
         <v>64</v>
       </c>
-      <c r="C76" t="s" s="4">
+      <c r="C77" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="D76" t="s" s="4">
-        <v>2</v>
-      </c>
-      <c r="E76" t="s" s="4">
+      <c r="D77" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="E77" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="F76" t="s" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="s" s="9">
+      <c r="F77" t="s" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s" s="9">
         <v>16</v>
       </c>
-      <c r="B77" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="C77" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="D77" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="E77" t="s" s="9">
+      <c r="B78" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="C78" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="D78" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="E78" t="s" s="9">
         <v>17</v>
       </c>
-      <c r="F77" t="s" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="s" s="8">
+      <c r="F78" t="s" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s" s="8">
         <v>18</v>
       </c>
-      <c r="B78" t="s" s="8">
+      <c r="B79" t="s" s="8">
         <v>19</v>
       </c>
-      <c r="C78" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D78" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E78" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F78" t="s" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="s" s="5">
+      <c r="C79" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D79" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E79" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F79" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="B79" t="s" s="5">
+      <c r="B80" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="C79" t="s" s="5">
+      <c r="C80" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="D79" t="s" s="5">
+      <c r="D80" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="E79" t="s" s="5">
+      <c r="E80" t="s" s="5">
         <v>24</v>
       </c>
-      <c r="F79" t="s" s="5">
+      <c r="F80" t="s" s="5">
         <v>25</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="n" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="B80" t="s" s="7">
-        <v>26</v>
-      </c>
-      <c r="C80" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D80" t="s" s="7">
-        <v>27</v>
-      </c>
-      <c r="E80" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F80" t="s" s="6">
-        <v>2</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n" s="10">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="B81" t="s" s="7">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C81" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D81" t="s" s="7">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E81" t="s" s="6">
         <v>2</v>
@@ -1775,16 +1775,16 @@
     </row>
     <row r="82">
       <c r="A82" t="n" s="10">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="B82" t="s" s="7">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="C82" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D82" t="s" s="7">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="E82" t="s" s="6">
         <v>2</v>
@@ -1795,21 +1795,41 @@
     </row>
     <row r="83">
       <c r="A83" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="B83" t="s" s="7">
+        <v>47</v>
+      </c>
+      <c r="C83" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D83" t="s" s="7">
+        <v>48</v>
+      </c>
+      <c r="E83" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F83" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n" s="10">
         <v>4.0</v>
       </c>
-      <c r="B83" t="s" s="7">
+      <c r="B84" t="s" s="7">
         <v>49</v>
       </c>
-      <c r="C83" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D83" t="s" s="7">
+      <c r="C84" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D84" t="s" s="7">
         <v>65</v>
       </c>
-      <c r="E83" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F83" t="s" s="6">
+      <c r="E84" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F84" t="s" s="6">
         <v>2</v>
       </c>
     </row>
@@ -1829,8 +1849,8 @@
     <mergeCell ref="B57:F57"/>
     <mergeCell ref="B63:D63"/>
     <mergeCell ref="B64:F64"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="B78:F78"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B79:F79"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/output/xlsx/RF011 - Gerenciar Competencias (Portfolio)--GT-.xlsx
+++ b/output/xlsx/RF011 - Gerenciar Competencias (Portfolio)--GT-.xlsx
@@ -161,21 +161,21 @@
     <t>SYSTEM solicita confirmacao de exclusao mostrando o nome da Competencia (portfolio)</t>
   </si>
   <si>
+    <t>Lider de Pessoas nao confirma a exclusao da Competencia (portfolio)</t>
+  </si>
+  <si>
+    <t>SYSTEM exibe a listagem das Competencias (Portfolio) com a Competencia (Portfolio) excluida</t>
+  </si>
+  <si>
+    <t>TC3</t>
+  </si>
+  <si>
     <t>Lider de Pessoas confirma a exclusao da Competencia (portfolio)</t>
   </si>
   <si>
     <t>SYSTEM exibe uma mensagem de erro ao tentar excluir a Competencia (portfolio)</t>
   </si>
   <si>
-    <t>TC3</t>
-  </si>
-  <si>
-    <t>Lider de Pessoas nao confirma a exclusao da Competencia (portfolio)</t>
-  </si>
-  <si>
-    <t>SYSTEM exibe a listagem das Competencias (Portfolio) com a Competencia (Portfolio) excluida</t>
-  </si>
-  <si>
     <t>TC4</t>
   </si>
   <si>
@@ -203,13 +203,13 @@
     <t>TC6</t>
   </si>
   <si>
+    <t>SYSTEM exibe a listagem das Competencias (Portfolio) sem a Competencia (Portfolio) excluida</t>
+  </si>
+  <si>
+    <t>TC7</t>
+  </si>
+  <si>
     <t>SYSTEM exibe uma mensagem de erro ao tentar editar a Competencia (portfolio), informando o campo ou a validacao que falhou</t>
-  </si>
-  <si>
-    <t>TC7</t>
-  </si>
-  <si>
-    <t>SYSTEM exibe a listagem das Competencias (Portfolio) sem a Competencia (Portfolio) excluida</t>
   </si>
 </sst>
 </file>
@@ -1536,13 +1536,13 @@
         <v>3.0</v>
       </c>
       <c r="B68" t="s" s="7">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="C68" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D68" t="s" s="7">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="E68" t="s" s="6">
         <v>2</v>
@@ -1556,215 +1556,215 @@
         <v>4.0</v>
       </c>
       <c r="B69" t="s" s="7">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="C69" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D69" t="s" s="7">
+        <v>63</v>
+      </c>
+      <c r="E69" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F69" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70"/>
+    <row r="71"/>
+    <row r="72">
+      <c r="A72" t="s" s="4">
+        <v>12</v>
+      </c>
+      <c r="B72" t="s" s="4">
+        <v>64</v>
+      </c>
+      <c r="C72" t="s" s="4">
+        <v>14</v>
+      </c>
+      <c r="D72" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="E72" t="s" s="4">
+        <v>15</v>
+      </c>
+      <c r="F72" t="s" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="9">
+        <v>16</v>
+      </c>
+      <c r="B73" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="C73" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="D73" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="E73" t="s" s="9">
+        <v>17</v>
+      </c>
+      <c r="F73" t="s" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="8">
+        <v>18</v>
+      </c>
+      <c r="B74" t="s" s="8">
+        <v>19</v>
+      </c>
+      <c r="C74" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D74" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E74" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F74" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="5">
+        <v>20</v>
+      </c>
+      <c r="B75" t="s" s="5">
+        <v>21</v>
+      </c>
+      <c r="C75" t="s" s="5">
+        <v>22</v>
+      </c>
+      <c r="D75" t="s" s="5">
+        <v>23</v>
+      </c>
+      <c r="E75" t="s" s="5">
+        <v>24</v>
+      </c>
+      <c r="F75" t="s" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="B76" t="s" s="7">
+        <v>26</v>
+      </c>
+      <c r="C76" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D76" t="s" s="7">
+        <v>27</v>
+      </c>
+      <c r="E76" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F76" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="B77" t="s" s="7">
+        <v>28</v>
+      </c>
+      <c r="C77" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D77" t="s" s="7">
+        <v>29</v>
+      </c>
+      <c r="E77" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F77" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="B78" t="s" s="7">
+        <v>30</v>
+      </c>
+      <c r="C78" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D78" t="s" s="7">
+        <v>31</v>
+      </c>
+      <c r="E78" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F78" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="B79" t="s" s="7">
+        <v>56</v>
+      </c>
+      <c r="C79" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D79" t="s" s="7">
         <v>33</v>
       </c>
-      <c r="E69" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F69" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="n" s="10">
+      <c r="E79" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F79" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n" s="10">
         <v>5.0</v>
       </c>
-      <c r="B70" t="s" s="7">
+      <c r="B80" t="s" s="7">
         <v>34</v>
       </c>
-      <c r="C70" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D70" t="s" s="7">
+      <c r="C80" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D80" t="s" s="7">
         <v>35</v>
       </c>
-      <c r="E70" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F70" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="n" s="10">
-        <v>6.0</v>
-      </c>
-      <c r="B71" t="s" s="7">
-        <v>36</v>
-      </c>
-      <c r="C71" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D71" t="s" s="7">
-        <v>37</v>
-      </c>
-      <c r="E71" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F71" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="n" s="10">
-        <v>7.0</v>
-      </c>
-      <c r="B72" t="s" s="7">
-        <v>38</v>
-      </c>
-      <c r="C72" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D72" t="s" s="7">
-        <v>39</v>
-      </c>
-      <c r="E72" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F72" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="n" s="10">
-        <v>8.0</v>
-      </c>
-      <c r="B73" t="s" s="7">
-        <v>40</v>
-      </c>
-      <c r="C73" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D73" t="s" s="7">
-        <v>41</v>
-      </c>
-      <c r="E73" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F73" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="n" s="10">
-        <v>9.0</v>
-      </c>
-      <c r="B74" t="s" s="7">
-        <v>42</v>
-      </c>
-      <c r="C74" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D74" t="s" s="7">
-        <v>63</v>
-      </c>
-      <c r="E74" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F74" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="75"/>
-    <row r="76"/>
-    <row r="77">
-      <c r="A77" t="s" s="4">
-        <v>12</v>
-      </c>
-      <c r="B77" t="s" s="4">
-        <v>64</v>
-      </c>
-      <c r="C77" t="s" s="4">
-        <v>14</v>
-      </c>
-      <c r="D77" t="s" s="4">
-        <v>2</v>
-      </c>
-      <c r="E77" t="s" s="4">
-        <v>15</v>
-      </c>
-      <c r="F77" t="s" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="s" s="9">
-        <v>16</v>
-      </c>
-      <c r="B78" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="C78" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="D78" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="E78" t="s" s="9">
-        <v>17</v>
-      </c>
-      <c r="F78" t="s" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="s" s="8">
-        <v>18</v>
-      </c>
-      <c r="B79" t="s" s="8">
-        <v>19</v>
-      </c>
-      <c r="C79" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D79" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E79" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F79" t="s" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="s" s="5">
-        <v>20</v>
-      </c>
-      <c r="B80" t="s" s="5">
-        <v>21</v>
-      </c>
-      <c r="C80" t="s" s="5">
-        <v>22</v>
-      </c>
-      <c r="D80" t="s" s="5">
-        <v>23</v>
-      </c>
-      <c r="E80" t="s" s="5">
-        <v>24</v>
-      </c>
-      <c r="F80" t="s" s="5">
-        <v>25</v>
+      <c r="E80" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F80" t="s" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n" s="10">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="B81" t="s" s="7">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C81" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D81" t="s" s="7">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="E81" t="s" s="6">
         <v>2</v>
@@ -1775,16 +1775,16 @@
     </row>
     <row r="82">
       <c r="A82" t="n" s="10">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
       <c r="B82" t="s" s="7">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C82" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D82" t="s" s="7">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="E82" t="s" s="6">
         <v>2</v>
@@ -1795,16 +1795,16 @@
     </row>
     <row r="83">
       <c r="A83" t="n" s="10">
-        <v>3.0</v>
+        <v>8.0</v>
       </c>
       <c r="B83" t="s" s="7">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C83" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D83" t="s" s="7">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="E83" t="s" s="6">
         <v>2</v>
@@ -1815,10 +1815,10 @@
     </row>
     <row r="84">
       <c r="A84" t="n" s="10">
-        <v>4.0</v>
+        <v>9.0</v>
       </c>
       <c r="B84" t="s" s="7">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C84" t="s" s="6">
         <v>2</v>
@@ -1849,8 +1849,8 @@
     <mergeCell ref="B57:F57"/>
     <mergeCell ref="B63:D63"/>
     <mergeCell ref="B64:F64"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B79:F79"/>
+    <mergeCell ref="B73:D73"/>
+    <mergeCell ref="B74:F74"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/output/xlsx/RF011 - Gerenciar Competencias (Portfolio)--GT-.xlsx
+++ b/output/xlsx/RF011 - Gerenciar Competencias (Portfolio)--GT-.xlsx
@@ -161,36 +161,36 @@
     <t>SYSTEM solicita confirmacao de exclusao mostrando o nome da Competencia (portfolio)</t>
   </si>
   <si>
+    <t>Lider de Pessoas confirma a exclusao da Competencia (portfolio)</t>
+  </si>
+  <si>
+    <t>SYSTEM exibe uma mensagem de erro ao tentar excluir a Competencia (portfolio)</t>
+  </si>
+  <si>
+    <t>TC3</t>
+  </si>
+  <si>
+    <t>Lider de Pessoas clica na opcao 'Novo' para criar um nova Competencia (portfolio)</t>
+  </si>
+  <si>
+    <t>Lider de Pessoas seleciona no campo 'Tipo de Competencia' a opcao comportamental</t>
+  </si>
+  <si>
+    <t>Lider de Pessoas indica Nao no campo 'Niveis estao modificados para esta competencia'</t>
+  </si>
+  <si>
+    <t>SYSTEM exibe uma mensagem de erro ao tentar salvar a nova Competencia (portfolio), informando o campo ou a validacao que falhou</t>
+  </si>
+  <si>
+    <t>TC4</t>
+  </si>
+  <si>
     <t>Lider de Pessoas nao confirma a exclusao da Competencia (portfolio)</t>
   </si>
   <si>
     <t>SYSTEM exibe a listagem das Competencias (Portfolio) com a Competencia (Portfolio) excluida</t>
   </si>
   <si>
-    <t>TC3</t>
-  </si>
-  <si>
-    <t>Lider de Pessoas confirma a exclusao da Competencia (portfolio)</t>
-  </si>
-  <si>
-    <t>SYSTEM exibe uma mensagem de erro ao tentar excluir a Competencia (portfolio)</t>
-  </si>
-  <si>
-    <t>TC4</t>
-  </si>
-  <si>
-    <t>Lider de Pessoas clica na opcao 'Novo' para criar um nova Competencia (portfolio)</t>
-  </si>
-  <si>
-    <t>Lider de Pessoas seleciona no campo 'Tipo de Competencia' a opcao comportamental</t>
-  </si>
-  <si>
-    <t>Lider de Pessoas indica Nao no campo 'Niveis estao modificados para esta competencia'</t>
-  </si>
-  <si>
-    <t>SYSTEM exibe uma mensagem de erro ao tentar salvar a nova Competencia (portfolio), informando o campo ou a validacao que falhou</t>
-  </si>
-  <si>
     <t>TC5</t>
   </si>
   <si>
@@ -203,13 +203,13 @@
     <t>TC6</t>
   </si>
   <si>
+    <t>SYSTEM exibe uma mensagem de erro ao tentar editar a Competencia (portfolio), informando o campo ou a validacao que falhou</t>
+  </si>
+  <si>
+    <t>TC7</t>
+  </si>
+  <si>
     <t>SYSTEM exibe a listagem das Competencias (Portfolio) sem a Competencia (Portfolio) excluida</t>
-  </si>
-  <si>
-    <t>TC7</t>
-  </si>
-  <si>
-    <t>SYSTEM exibe uma mensagem de erro ao tentar editar a Competencia (portfolio), informando o campo ou a validacao que falhou</t>
   </si>
 </sst>
 </file>
@@ -1030,13 +1030,13 @@
         <v>2.0</v>
       </c>
       <c r="B37" t="s" s="7">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="C37" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D37" t="s" s="7">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E37" t="s" s="6">
         <v>2</v>
@@ -1050,13 +1050,13 @@
         <v>3.0</v>
       </c>
       <c r="B38" t="s" s="7">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C38" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D38" t="s" s="7">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="E38" t="s" s="6">
         <v>2</v>
@@ -1070,13 +1070,13 @@
         <v>4.0</v>
       </c>
       <c r="B39" t="s" s="7">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="C39" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D39" t="s" s="7">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="E39" t="s" s="6">
         <v>2</v>
@@ -1085,160 +1085,160 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40"/>
-    <row r="41"/>
+    <row r="40">
+      <c r="A40" t="n" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="B40" t="s" s="7">
+        <v>36</v>
+      </c>
+      <c r="C40" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D40" t="s" s="7">
+        <v>37</v>
+      </c>
+      <c r="E40" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F40" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n" s="10">
+        <v>6.0</v>
+      </c>
+      <c r="B41" t="s" s="7">
+        <v>54</v>
+      </c>
+      <c r="C41" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D41" t="s" s="7">
+        <v>39</v>
+      </c>
+      <c r="E41" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F41" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
     <row r="42">
-      <c r="A42" t="s" s="4">
+      <c r="A42" t="n" s="10">
+        <v>7.0</v>
+      </c>
+      <c r="B42" t="s" s="7">
+        <v>42</v>
+      </c>
+      <c r="C42" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D42" t="s" s="7">
+        <v>55</v>
+      </c>
+      <c r="E42" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F42" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43"/>
+    <row r="44"/>
+    <row r="45">
+      <c r="A45" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="B42" t="s" s="4">
-        <v>54</v>
-      </c>
-      <c r="C42" t="s" s="4">
+      <c r="B45" t="s" s="4">
+        <v>56</v>
+      </c>
+      <c r="C45" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="D42" t="s" s="4">
-        <v>2</v>
-      </c>
-      <c r="E42" t="s" s="4">
+      <c r="D45" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="E45" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="F42" t="s" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s" s="9">
+      <c r="F45" t="s" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="9">
         <v>16</v>
       </c>
-      <c r="B43" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="C43" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="D43" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="E43" t="s" s="9">
+      <c r="B46" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="C46" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="D46" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="E46" t="s" s="9">
         <v>17</v>
       </c>
-      <c r="F43" t="s" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s" s="8">
+      <c r="F46" t="s" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="8">
         <v>18</v>
       </c>
-      <c r="B44" t="s" s="8">
+      <c r="B47" t="s" s="8">
         <v>19</v>
       </c>
-      <c r="C44" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D44" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E44" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F44" t="s" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="s" s="5">
+      <c r="C47" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D47" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E47" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F47" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="B45" t="s" s="5">
+      <c r="B48" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="C45" t="s" s="5">
+      <c r="C48" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="D45" t="s" s="5">
+      <c r="D48" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="E45" t="s" s="5">
+      <c r="E48" t="s" s="5">
         <v>24</v>
       </c>
-      <c r="F45" t="s" s="5">
+      <c r="F48" t="s" s="5">
         <v>25</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="B46" t="s" s="7">
-        <v>26</v>
-      </c>
-      <c r="C46" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D46" t="s" s="7">
-        <v>27</v>
-      </c>
-      <c r="E46" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F46" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n" s="10">
-        <v>2.0</v>
-      </c>
-      <c r="B47" t="s" s="7">
-        <v>55</v>
-      </c>
-      <c r="C47" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D47" t="s" s="7">
-        <v>31</v>
-      </c>
-      <c r="E47" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F47" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="B48" t="s" s="7">
-        <v>56</v>
-      </c>
-      <c r="C48" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D48" t="s" s="7">
-        <v>33</v>
-      </c>
-      <c r="E48" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F48" t="s" s="6">
-        <v>2</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n" s="10">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="B49" t="s" s="7">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C49" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D49" t="s" s="7">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E49" t="s" s="6">
         <v>2</v>
@@ -1249,16 +1249,16 @@
     </row>
     <row r="50">
       <c r="A50" t="n" s="10">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="B50" t="s" s="7">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C50" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D50" t="s" s="7">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E50" t="s" s="6">
         <v>2</v>
@@ -1269,16 +1269,16 @@
     </row>
     <row r="51">
       <c r="A51" t="n" s="10">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="B51" t="s" s="7">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="C51" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D51" t="s" s="7">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="E51" t="s" s="6">
         <v>2</v>
@@ -1289,10 +1289,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n" s="10">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
       <c r="B52" t="s" s="7">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="C52" t="s" s="6">
         <v>2</v>
@@ -1536,13 +1536,13 @@
         <v>3.0</v>
       </c>
       <c r="B68" t="s" s="7">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="C68" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D68" t="s" s="7">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="E68" t="s" s="6">
         <v>2</v>
@@ -1556,215 +1556,215 @@
         <v>4.0</v>
       </c>
       <c r="B69" t="s" s="7">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="C69" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D69" t="s" s="7">
+        <v>33</v>
+      </c>
+      <c r="E69" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F69" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="B70" t="s" s="7">
+        <v>34</v>
+      </c>
+      <c r="C70" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D70" t="s" s="7">
+        <v>35</v>
+      </c>
+      <c r="E70" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F70" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n" s="10">
+        <v>6.0</v>
+      </c>
+      <c r="B71" t="s" s="7">
+        <v>36</v>
+      </c>
+      <c r="C71" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D71" t="s" s="7">
+        <v>37</v>
+      </c>
+      <c r="E71" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F71" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n" s="10">
+        <v>7.0</v>
+      </c>
+      <c r="B72" t="s" s="7">
+        <v>38</v>
+      </c>
+      <c r="C72" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D72" t="s" s="7">
+        <v>39</v>
+      </c>
+      <c r="E72" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F72" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n" s="10">
+        <v>8.0</v>
+      </c>
+      <c r="B73" t="s" s="7">
+        <v>40</v>
+      </c>
+      <c r="C73" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D73" t="s" s="7">
+        <v>41</v>
+      </c>
+      <c r="E73" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F73" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n" s="10">
+        <v>9.0</v>
+      </c>
+      <c r="B74" t="s" s="7">
+        <v>42</v>
+      </c>
+      <c r="C74" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D74" t="s" s="7">
         <v>63</v>
       </c>
-      <c r="E69" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F69" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="70"/>
-    <row r="71"/>
-    <row r="72">
-      <c r="A72" t="s" s="4">
+      <c r="E74" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F74" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75"/>
+    <row r="76"/>
+    <row r="77">
+      <c r="A77" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="B72" t="s" s="4">
+      <c r="B77" t="s" s="4">
         <v>64</v>
       </c>
-      <c r="C72" t="s" s="4">
+      <c r="C77" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="D72" t="s" s="4">
-        <v>2</v>
-      </c>
-      <c r="E72" t="s" s="4">
+      <c r="D77" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="E77" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="F72" t="s" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="s" s="9">
+      <c r="F77" t="s" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s" s="9">
         <v>16</v>
       </c>
-      <c r="B73" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="C73" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="D73" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="E73" t="s" s="9">
+      <c r="B78" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="C78" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="D78" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="E78" t="s" s="9">
         <v>17</v>
       </c>
-      <c r="F73" t="s" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="s" s="8">
+      <c r="F78" t="s" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s" s="8">
         <v>18</v>
       </c>
-      <c r="B74" t="s" s="8">
+      <c r="B79" t="s" s="8">
         <v>19</v>
       </c>
-      <c r="C74" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D74" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E74" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F74" t="s" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="s" s="5">
+      <c r="C79" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D79" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E79" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F79" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="B75" t="s" s="5">
+      <c r="B80" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="C75" t="s" s="5">
+      <c r="C80" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="D75" t="s" s="5">
+      <c r="D80" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="E75" t="s" s="5">
+      <c r="E80" t="s" s="5">
         <v>24</v>
       </c>
-      <c r="F75" t="s" s="5">
+      <c r="F80" t="s" s="5">
         <v>25</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="n" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="B76" t="s" s="7">
-        <v>26</v>
-      </c>
-      <c r="C76" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D76" t="s" s="7">
-        <v>27</v>
-      </c>
-      <c r="E76" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F76" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="n" s="10">
-        <v>2.0</v>
-      </c>
-      <c r="B77" t="s" s="7">
-        <v>28</v>
-      </c>
-      <c r="C77" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D77" t="s" s="7">
-        <v>29</v>
-      </c>
-      <c r="E77" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F77" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="n" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="B78" t="s" s="7">
-        <v>30</v>
-      </c>
-      <c r="C78" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D78" t="s" s="7">
-        <v>31</v>
-      </c>
-      <c r="E78" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F78" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="n" s="10">
-        <v>4.0</v>
-      </c>
-      <c r="B79" t="s" s="7">
-        <v>56</v>
-      </c>
-      <c r="C79" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D79" t="s" s="7">
-        <v>33</v>
-      </c>
-      <c r="E79" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F79" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="n" s="10">
-        <v>5.0</v>
-      </c>
-      <c r="B80" t="s" s="7">
-        <v>34</v>
-      </c>
-      <c r="C80" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D80" t="s" s="7">
-        <v>35</v>
-      </c>
-      <c r="E80" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F80" t="s" s="6">
-        <v>2</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n" s="10">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c r="B81" t="s" s="7">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C81" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D81" t="s" s="7">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="E81" t="s" s="6">
         <v>2</v>
@@ -1775,16 +1775,16 @@
     </row>
     <row r="82">
       <c r="A82" t="n" s="10">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
       <c r="B82" t="s" s="7">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C82" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D82" t="s" s="7">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="E82" t="s" s="6">
         <v>2</v>
@@ -1795,16 +1795,16 @@
     </row>
     <row r="83">
       <c r="A83" t="n" s="10">
-        <v>8.0</v>
+        <v>3.0</v>
       </c>
       <c r="B83" t="s" s="7">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C83" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D83" t="s" s="7">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="E83" t="s" s="6">
         <v>2</v>
@@ -1815,10 +1815,10 @@
     </row>
     <row r="84">
       <c r="A84" t="n" s="10">
-        <v>9.0</v>
+        <v>4.0</v>
       </c>
       <c r="B84" t="s" s="7">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C84" t="s" s="6">
         <v>2</v>
@@ -1843,14 +1843,14 @@
     <mergeCell ref="B24:F24"/>
     <mergeCell ref="B33:D33"/>
     <mergeCell ref="B34:F34"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B44:F44"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:F47"/>
     <mergeCell ref="B56:D56"/>
     <mergeCell ref="B57:F57"/>
     <mergeCell ref="B63:D63"/>
     <mergeCell ref="B64:F64"/>
-    <mergeCell ref="B73:D73"/>
-    <mergeCell ref="B74:F74"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B79:F79"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/output/xlsx/RF011 - Gerenciar Competencias (Portfolio)--GT-.xlsx
+++ b/output/xlsx/RF011 - Gerenciar Competencias (Portfolio)--GT-.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="66">
   <si>
     <t xml:space="preserve">System: </t>
   </si>
@@ -98,7 +98,7 @@
     <t>SYSTEM exibe a listagem das Competencias (Portfolio) cadastradas com opcoes de 'Novo', 'Editar', 'Excluir' e 'Ajuda'</t>
   </si>
   <si>
-    <t>Lider de Pessoas seleciona um Competencias (Portfolio) da listagem</t>
+    <t>Lider de Pessoas seleciona uma Competencias (Portfolio) da listagem</t>
   </si>
   <si>
     <t>SYSTEM destaca a Competencia (Portfolio) selecionada na listagem</t>
@@ -170,7 +170,16 @@
     <t>TC3</t>
   </si>
   <si>
-    <t>Lider de Pessoas clica na opcao 'Novo' para criar um nova Competencia (portfolio)</t>
+    <t>Lider de Pessoas nao confirma a exclusao da Competencia (portfolio)</t>
+  </si>
+  <si>
+    <t>SYSTEM exibe a listagem das Competencias (Portfolio) com a Competencia (Portfolio) nao excluida</t>
+  </si>
+  <si>
+    <t>TC4</t>
+  </si>
+  <si>
+    <t>Lider de Pessoas clica na opcao 'Novo' para criar uma nova Competencia (portfolio)</t>
   </si>
   <si>
     <t>Lider de Pessoas seleciona no campo 'Tipo de Competencia' a opcao comportamental</t>
@@ -182,15 +191,6 @@
     <t>SYSTEM exibe uma mensagem de erro ao tentar salvar a nova Competencia (portfolio), informando o campo ou a validacao que falhou</t>
   </si>
   <si>
-    <t>TC4</t>
-  </si>
-  <si>
-    <t>Lider de Pessoas nao confirma a exclusao da Competencia (portfolio)</t>
-  </si>
-  <si>
-    <t>SYSTEM exibe a listagem das Competencias (Portfolio) com a Competencia (Portfolio) excluida</t>
-  </si>
-  <si>
     <t>TC5</t>
   </si>
   <si>
@@ -203,13 +203,13 @@
     <t>TC6</t>
   </si>
   <si>
+    <t>SYSTEM exibe a listagem das Competencias (Portfolio) sem a Competencia (Portfolio) excluida</t>
+  </si>
+  <si>
+    <t>TC7</t>
+  </si>
+  <si>
     <t>SYSTEM exibe uma mensagem de erro ao tentar editar a Competencia (portfolio), informando o campo ou a validacao que falhou</t>
-  </si>
-  <si>
-    <t>TC7</t>
-  </si>
-  <si>
-    <t>SYSTEM exibe a listagem das Competencias (Portfolio) sem a Competencia (Portfolio) excluida</t>
   </si>
 </sst>
 </file>
@@ -405,7 +405,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F84"/>
+  <dimension ref="A1:F83"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" showGridLines="false"/>
   </sheetViews>
@@ -1030,13 +1030,13 @@
         <v>2.0</v>
       </c>
       <c r="B37" t="s" s="7">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="C37" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D37" t="s" s="7">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E37" t="s" s="6">
         <v>2</v>
@@ -1050,13 +1050,13 @@
         <v>3.0</v>
       </c>
       <c r="B38" t="s" s="7">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C38" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D38" t="s" s="7">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="E38" t="s" s="6">
         <v>2</v>
@@ -1070,13 +1070,13 @@
         <v>4.0</v>
       </c>
       <c r="B39" t="s" s="7">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="C39" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D39" t="s" s="7">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="E39" t="s" s="6">
         <v>2</v>
@@ -1085,160 +1085,160 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="n" s="10">
-        <v>5.0</v>
-      </c>
-      <c r="B40" t="s" s="7">
-        <v>36</v>
-      </c>
-      <c r="C40" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D40" t="s" s="7">
-        <v>37</v>
-      </c>
-      <c r="E40" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F40" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n" s="10">
-        <v>6.0</v>
-      </c>
-      <c r="B41" t="s" s="7">
+    <row r="40"/>
+    <row r="41"/>
+    <row r="42">
+      <c r="A42" t="s" s="4">
+        <v>12</v>
+      </c>
+      <c r="B42" t="s" s="4">
         <v>54</v>
       </c>
-      <c r="C41" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D41" t="s" s="7">
-        <v>39</v>
-      </c>
-      <c r="E41" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F41" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n" s="10">
-        <v>7.0</v>
-      </c>
-      <c r="B42" t="s" s="7">
-        <v>42</v>
-      </c>
-      <c r="C42" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D42" t="s" s="7">
+      <c r="C42" t="s" s="4">
+        <v>14</v>
+      </c>
+      <c r="D42" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="E42" t="s" s="4">
+        <v>15</v>
+      </c>
+      <c r="F42" t="s" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="9">
+        <v>16</v>
+      </c>
+      <c r="B43" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="C43" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="D43" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="E43" t="s" s="9">
+        <v>17</v>
+      </c>
+      <c r="F43" t="s" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="8">
+        <v>18</v>
+      </c>
+      <c r="B44" t="s" s="8">
+        <v>19</v>
+      </c>
+      <c r="C44" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D44" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E44" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F44" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="5">
+        <v>20</v>
+      </c>
+      <c r="B45" t="s" s="5">
+        <v>21</v>
+      </c>
+      <c r="C45" t="s" s="5">
+        <v>22</v>
+      </c>
+      <c r="D45" t="s" s="5">
+        <v>23</v>
+      </c>
+      <c r="E45" t="s" s="5">
+        <v>24</v>
+      </c>
+      <c r="F45" t="s" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="B46" t="s" s="7">
+        <v>26</v>
+      </c>
+      <c r="C46" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D46" t="s" s="7">
+        <v>27</v>
+      </c>
+      <c r="E46" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F46" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="B47" t="s" s="7">
         <v>55</v>
       </c>
-      <c r="E42" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F42" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43"/>
-    <row r="44"/>
-    <row r="45">
-      <c r="A45" t="s" s="4">
-        <v>12</v>
-      </c>
-      <c r="B45" t="s" s="4">
+      <c r="C47" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D47" t="s" s="7">
+        <v>31</v>
+      </c>
+      <c r="E47" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F47" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="B48" t="s" s="7">
         <v>56</v>
       </c>
-      <c r="C45" t="s" s="4">
-        <v>14</v>
-      </c>
-      <c r="D45" t="s" s="4">
-        <v>2</v>
-      </c>
-      <c r="E45" t="s" s="4">
-        <v>15</v>
-      </c>
-      <c r="F45" t="s" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="s" s="9">
-        <v>16</v>
-      </c>
-      <c r="B46" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="C46" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="D46" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="E46" t="s" s="9">
-        <v>17</v>
-      </c>
-      <c r="F46" t="s" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="s" s="8">
-        <v>18</v>
-      </c>
-      <c r="B47" t="s" s="8">
-        <v>19</v>
-      </c>
-      <c r="C47" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D47" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E47" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F47" t="s" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="s" s="5">
-        <v>20</v>
-      </c>
-      <c r="B48" t="s" s="5">
-        <v>21</v>
-      </c>
-      <c r="C48" t="s" s="5">
-        <v>22</v>
-      </c>
-      <c r="D48" t="s" s="5">
-        <v>23</v>
-      </c>
-      <c r="E48" t="s" s="5">
-        <v>24</v>
-      </c>
-      <c r="F48" t="s" s="5">
-        <v>25</v>
+      <c r="C48" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D48" t="s" s="7">
+        <v>33</v>
+      </c>
+      <c r="E48" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F48" t="s" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n" s="10">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="B49" t="s" s="7">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C49" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D49" t="s" s="7">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E49" t="s" s="6">
         <v>2</v>
@@ -1249,16 +1249,16 @@
     </row>
     <row r="50">
       <c r="A50" t="n" s="10">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="B50" t="s" s="7">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C50" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D50" t="s" s="7">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="E50" t="s" s="6">
         <v>2</v>
@@ -1269,16 +1269,16 @@
     </row>
     <row r="51">
       <c r="A51" t="n" s="10">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="B51" t="s" s="7">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="C51" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D51" t="s" s="7">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="E51" t="s" s="6">
         <v>2</v>
@@ -1289,10 +1289,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n" s="10">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="B52" t="s" s="7">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="C52" t="s" s="6">
         <v>2</v>
@@ -1536,13 +1536,13 @@
         <v>3.0</v>
       </c>
       <c r="B68" t="s" s="7">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="C68" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D68" t="s" s="7">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="E68" t="s" s="6">
         <v>2</v>
@@ -1556,215 +1556,215 @@
         <v>4.0</v>
       </c>
       <c r="B69" t="s" s="7">
+        <v>49</v>
+      </c>
+      <c r="C69" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D69" t="s" s="7">
+        <v>63</v>
+      </c>
+      <c r="E69" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F69" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70"/>
+    <row r="71"/>
+    <row r="72">
+      <c r="A72" t="s" s="4">
+        <v>12</v>
+      </c>
+      <c r="B72" t="s" s="4">
+        <v>64</v>
+      </c>
+      <c r="C72" t="s" s="4">
+        <v>14</v>
+      </c>
+      <c r="D72" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="E72" t="s" s="4">
+        <v>15</v>
+      </c>
+      <c r="F72" t="s" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="9">
+        <v>16</v>
+      </c>
+      <c r="B73" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="C73" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="D73" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="E73" t="s" s="9">
+        <v>17</v>
+      </c>
+      <c r="F73" t="s" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="8">
+        <v>18</v>
+      </c>
+      <c r="B74" t="s" s="8">
+        <v>19</v>
+      </c>
+      <c r="C74" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D74" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E74" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F74" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="5">
+        <v>20</v>
+      </c>
+      <c r="B75" t="s" s="5">
+        <v>21</v>
+      </c>
+      <c r="C75" t="s" s="5">
+        <v>22</v>
+      </c>
+      <c r="D75" t="s" s="5">
+        <v>23</v>
+      </c>
+      <c r="E75" t="s" s="5">
+        <v>24</v>
+      </c>
+      <c r="F75" t="s" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="B76" t="s" s="7">
+        <v>26</v>
+      </c>
+      <c r="C76" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D76" t="s" s="7">
+        <v>27</v>
+      </c>
+      <c r="E76" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F76" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="B77" t="s" s="7">
+        <v>55</v>
+      </c>
+      <c r="C77" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D77" t="s" s="7">
+        <v>31</v>
+      </c>
+      <c r="E77" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F77" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="B78" t="s" s="7">
         <v>32</v>
       </c>
-      <c r="C69" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D69" t="s" s="7">
+      <c r="C78" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D78" t="s" s="7">
         <v>33</v>
       </c>
-      <c r="E69" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F69" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="n" s="10">
+      <c r="E78" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F78" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="B79" t="s" s="7">
+        <v>34</v>
+      </c>
+      <c r="C79" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D79" t="s" s="7">
+        <v>35</v>
+      </c>
+      <c r="E79" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F79" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n" s="10">
         <v>5.0</v>
       </c>
-      <c r="B70" t="s" s="7">
-        <v>34</v>
-      </c>
-      <c r="C70" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D70" t="s" s="7">
-        <v>35</v>
-      </c>
-      <c r="E70" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F70" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="n" s="10">
-        <v>6.0</v>
-      </c>
-      <c r="B71" t="s" s="7">
+      <c r="B80" t="s" s="7">
         <v>36</v>
       </c>
-      <c r="C71" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D71" t="s" s="7">
+      <c r="C80" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D80" t="s" s="7">
         <v>37</v>
       </c>
-      <c r="E71" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F71" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="n" s="10">
-        <v>7.0</v>
-      </c>
-      <c r="B72" t="s" s="7">
-        <v>38</v>
-      </c>
-      <c r="C72" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D72" t="s" s="7">
-        <v>39</v>
-      </c>
-      <c r="E72" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F72" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="n" s="10">
-        <v>8.0</v>
-      </c>
-      <c r="B73" t="s" s="7">
-        <v>40</v>
-      </c>
-      <c r="C73" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D73" t="s" s="7">
-        <v>41</v>
-      </c>
-      <c r="E73" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F73" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="n" s="10">
-        <v>9.0</v>
-      </c>
-      <c r="B74" t="s" s="7">
-        <v>42</v>
-      </c>
-      <c r="C74" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D74" t="s" s="7">
-        <v>63</v>
-      </c>
-      <c r="E74" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F74" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="75"/>
-    <row r="76"/>
-    <row r="77">
-      <c r="A77" t="s" s="4">
-        <v>12</v>
-      </c>
-      <c r="B77" t="s" s="4">
-        <v>64</v>
-      </c>
-      <c r="C77" t="s" s="4">
-        <v>14</v>
-      </c>
-      <c r="D77" t="s" s="4">
-        <v>2</v>
-      </c>
-      <c r="E77" t="s" s="4">
-        <v>15</v>
-      </c>
-      <c r="F77" t="s" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="s" s="9">
-        <v>16</v>
-      </c>
-      <c r="B78" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="C78" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="D78" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="E78" t="s" s="9">
-        <v>17</v>
-      </c>
-      <c r="F78" t="s" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="s" s="8">
-        <v>18</v>
-      </c>
-      <c r="B79" t="s" s="8">
-        <v>19</v>
-      </c>
-      <c r="C79" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D79" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E79" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F79" t="s" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="s" s="5">
-        <v>20</v>
-      </c>
-      <c r="B80" t="s" s="5">
-        <v>21</v>
-      </c>
-      <c r="C80" t="s" s="5">
-        <v>22</v>
-      </c>
-      <c r="D80" t="s" s="5">
-        <v>23</v>
-      </c>
-      <c r="E80" t="s" s="5">
-        <v>24</v>
-      </c>
-      <c r="F80" t="s" s="5">
-        <v>25</v>
+      <c r="E80" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F80" t="s" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n" s="10">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="B81" t="s" s="7">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="C81" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D81" t="s" s="7">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="E81" t="s" s="6">
         <v>2</v>
@@ -1775,16 +1775,16 @@
     </row>
     <row r="82">
       <c r="A82" t="n" s="10">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
       <c r="B82" t="s" s="7">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="C82" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D82" t="s" s="7">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="E82" t="s" s="6">
         <v>2</v>
@@ -1795,41 +1795,21 @@
     </row>
     <row r="83">
       <c r="A83" t="n" s="10">
-        <v>3.0</v>
+        <v>8.0</v>
       </c>
       <c r="B83" t="s" s="7">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C83" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D83" t="s" s="7">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="E83" t="s" s="6">
         <v>2</v>
       </c>
       <c r="F83" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="n" s="10">
-        <v>4.0</v>
-      </c>
-      <c r="B84" t="s" s="7">
-        <v>49</v>
-      </c>
-      <c r="C84" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D84" t="s" s="7">
-        <v>65</v>
-      </c>
-      <c r="E84" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F84" t="s" s="6">
         <v>2</v>
       </c>
     </row>
@@ -1843,14 +1823,14 @@
     <mergeCell ref="B24:F24"/>
     <mergeCell ref="B33:D33"/>
     <mergeCell ref="B34:F34"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:F47"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B44:F44"/>
     <mergeCell ref="B56:D56"/>
     <mergeCell ref="B57:F57"/>
     <mergeCell ref="B63:D63"/>
     <mergeCell ref="B64:F64"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B79:F79"/>
+    <mergeCell ref="B73:D73"/>
+    <mergeCell ref="B74:F74"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
